--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\1.9\ReportGenerator\CastReporting.Reporting\TemplatesFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5960A8F-A872-4A85-BF8F-DA9BEC6342C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D785F-C113-4EF1-8DC2-710674A51A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_VERSION</t>
   </si>
   <si>
-    <t>RepGen:TABLE;AETP_LIST;COUNT=-1</t>
+    <t>RepGen:TABLE;AETP_LIST;COUNT=-1,FORMAT=N5</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5470F-AD14-42F3-8810-0BAE0FBFD299}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D785F-C113-4EF1-8DC2-710674A51A1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D648C7-88B0-4D34-891F-4A6B479EE060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5470F-AD14-42F3-8810-0BAE0FBFD299}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D648C7-88B0-4D34-891F-4A6B479EE060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F79EFD-4F7A-45A4-885A-6E03AEF86F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2505" windowWidth="21075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TABLE;AEFP_LIST;TYPE=DF,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;AEFP_LIST;TYPE=TF,COUNT=-1</t>
-  </si>
-  <si>
     <t>AEP</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;AETP_LIST;COUNT=-1,FORMAT=N5</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AEFP_LIST;TYPE=TF,COUNT=-1,ZERO=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AEFP_LIST;TYPE=DF,COUNT=-1,ZERO=NO</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1279,7 @@
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1311,14 +1311,14 @@
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -1335,36 +1335,36 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -1380,7 +1380,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1399,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1438,22 +1438,22 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1468,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1486,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1572,7 +1572,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3"/>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>5</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F79EFD-4F7A-45A4-885A-6E03AEF86F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE656D-B5B6-41BD-A8BF-21D5729EEAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -117,13 +117,13 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_VERSION</t>
   </si>
   <si>
-    <t>RepGen:TABLE;AETP_LIST;COUNT=-1,FORMAT=N5</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;AEFP_LIST;TYPE=TF,COUNT=-1,ZERO=NO</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;AEFP_LIST;TYPE=DF,COUNT=-1,ZERO=NO</t>
+    <t>RepGen:TABLE;AEFP_LIST;TYPE=TF,COUNT=5000,ZERO=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AEFP_LIST;TYPE=DF,COUNT=5000,ZERO=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;AETP_LIST;COUNT=5000,FORMAT=N5</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1453,7 @@
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1468,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1626,7 @@
     <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE656D-B5B6-41BD-A8BF-21D5729EEAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4BB307-266D-4DA0-A413-745FDC95AB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Technical Artifacts" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$E$21</definedName>
+    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$18:$E$22</definedName>
     <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!#REF!</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
     <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$E$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,6 +519,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -609,11 +621,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Summary!$C$18:$C$20</c15:sqref>
+                    <c15:sqref>Summary!$C$19:$C$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Summary!$C$19:$C$20</c:f>
+              <c:f>Summary!$C$20:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -630,11 +642,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Summary!$D$18:$D$20</c15:sqref>
+                    <c15:sqref>Summary!$D$19:$D$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Summary!$D$19:$D$20</c:f>
+              <c:f>Summary!$D$20:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -651,7 +663,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions>
                 <c15:categoryFilterException>
-                  <c15:sqref>Summary!$D$18</c15:sqref>
+                  <c15:sqref>Summary!$D$19</c15:sqref>
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:solidFill>
                       <a:srgbClr val="415A79"/>
@@ -712,69 +724,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>796634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1194088</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>273625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5687289" y="277089"/>
-          <a:ext cx="1665144" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>197422</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>72737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1101432</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>150600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -794,10 +754,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1177636</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>968046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20C0CB0-BF42-4025-B039-3F3990218675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922818" y="199159"/>
+          <a:ext cx="1020001" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1261,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,79 +1304,86 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-    </row>
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M8" s="14"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>9</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>10</v>
       </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Sizing reports/AEP-sample-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Sizing reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Temp\RG\Templates\Application\Sizing reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE656D-B5B6-41BD-A8BF-21D5729EEAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46F6205-7F95-4F76-A931-5D1A765E3439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2085" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Technical Artifacts" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$17:$E$21</definedName>
+    <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!$C$18:$E$22</definedName>
     <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!#REF!</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
     <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$E$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,6 +519,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent4" xfId="3" builtinId="41"/>
@@ -609,11 +621,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Summary!$C$18:$C$20</c15:sqref>
+                    <c15:sqref>Summary!$C$19:$C$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Summary!$C$19:$C$20</c:f>
+              <c:f>Summary!$C$20:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -630,11 +642,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Summary!$D$18:$D$20</c15:sqref>
+                    <c15:sqref>Summary!$D$19:$D$21</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Summary!$D$19:$D$20</c:f>
+              <c:f>Summary!$D$20:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -651,7 +663,7 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:categoryFilterExceptions>
                 <c15:categoryFilterException>
-                  <c15:sqref>Summary!$D$18</c15:sqref>
+                  <c15:sqref>Summary!$D$19</c15:sqref>
                   <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <a:solidFill>
                       <a:srgbClr val="415A79"/>
@@ -712,69 +724,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>796634</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1194088</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>273625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5687289" y="277089"/>
-          <a:ext cx="1665144" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>197422</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>72737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1101432</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>150600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -794,10 +754,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1177636</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>968046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20C0CB0-BF42-4025-B039-3F3990218675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922818" y="199159"/>
+          <a:ext cx="1020001" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -807,52 +817,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1169844</xdr:colOff>
+      <xdr:colOff>1153351</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>398100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91322EE4-CE5E-43BA-AC25-93B401DB02DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7225C143-8309-4E93-844A-58CDAD4BE127}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5760720" y="274320"/>
-          <a:ext cx="1665144" cy="190500"/>
+          <a:off x="6200775" y="238125"/>
+          <a:ext cx="1020001" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -864,52 +872,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1169844</xdr:colOff>
+      <xdr:colOff>1315276</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>398100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C613E1-2692-44AB-B8DA-F56F29951275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1318B674-DDF6-4000-B96E-A41DE4D29B30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5852160" y="274320"/>
-          <a:ext cx="1665144" cy="190500"/>
+          <a:off x="6353175" y="238125"/>
+          <a:ext cx="1020001" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -921,52 +927,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1169844</xdr:colOff>
+      <xdr:colOff>1105726</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>369525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF2929A-C40C-4A65-B33D-079BECD97FCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64C815B-D8C4-4BB6-B8F3-0F5D1ABBA4FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5745480" y="274320"/>
-          <a:ext cx="1665144" cy="190500"/>
+          <a:off x="6143625" y="209550"/>
+          <a:ext cx="1020001" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1261,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,79 +1298,86 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-    </row>
+    <row r="6" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M8" s="14"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D18" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="23" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>9</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>10</v>
       </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D21" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,13 +1391,14 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="6" width="18.28515625" customWidth="1"/>
+    <col min="2" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
@@ -1405,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1468,13 +1480,14 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="6" width="18.28515625" customWidth="1"/>
+    <col min="2" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
@@ -1492,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1568,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
